--- a/Data/EC/NIT-9003417789.xlsx
+++ b/Data/EC/NIT-9003417789.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59939A02-CEA8-48FF-B2FE-88F43FFCB170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAAF07E-DF59-492F-8D75-2A07181D3981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{124A46CF-CB5F-42C8-9697-7695FFF06B4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C2534A0-25B5-4DC2-B9B5-92058E50281D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,88 +65,91 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050969465</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS RAMOS PRENS</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1143389736</t>
+  </si>
+  <si>
+    <t>DANIELA ESTHER MUÑOZ BARRIOS</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1051891826</t>
+  </si>
+  <si>
+    <t>YAID LUZ DIAZ TORRES</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>9147800</t>
   </si>
   <si>
     <t>DAIRO RHENALS VALERO</t>
   </si>
   <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1050969465</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS RAMOS PRENS</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1143389736</t>
-  </si>
-  <si>
-    <t>DANIELA ESTHER MUÑOZ BARRIOS</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1051891826</t>
-  </si>
-  <si>
-    <t>YAID LUZ DIAZ TORRES</t>
-  </si>
-  <si>
-    <t>1809</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8FE567-DB93-5965-C51C-80CF262DB0C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C521DC-3ECF-21D3-D259-F3910AA086DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653759EE-CB65-4D23-BF30-786E5F983ADF}">
-  <dimension ref="B2:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07812838-7B61-46B0-B8AF-D16D300DEE69}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -936,7 +939,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +984,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1013,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>722448</v>
+        <v>774448</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,17 +1032,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1066,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1089,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>14755</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,16 +1106,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>14755</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1126,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1149,16 +1152,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
         <v>1300000</v>
@@ -1172,16 +1175,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1195,16 +1198,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
         <v>1300000</v>
@@ -1218,16 +1221,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1241,16 +1244,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1264,16 +1267,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>1300000</v>
@@ -1287,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>17333</v>
+        <v>1042</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1310,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>14755</v>
+        <v>17333</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1333,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1356,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
         <v>1300000</v>
@@ -1379,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
         <v>1300000</v>
@@ -1402,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1425,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1448,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
         <v>1300000</v>
@@ -1471,16 +1474,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1494,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>14755</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1513,42 +1516,54 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="24">
-        <v>1042</v>
-      </c>
-      <c r="G35" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F35" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="32"/>
       <c r="H41" s="1" t="s">
@@ -1557,12 +1572,23 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
